--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1924250.822511566</v>
+        <v>1921794.578765723</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9357313.992084226</v>
+        <v>9357313.992084231</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673417</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9965489.44986533</v>
+        <v>9965489.449865328</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="G2" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.284744599287937</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.864605585022639</v>
+        <v>4.284744599286949</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28474459928794</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="T3" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>4.284744599286949</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28474459928794</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.284744599286949</v>
       </c>
       <c r="S4" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.284744599287939</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="G5" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.284744599286949</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.28474459928794</v>
+        <v>4.28474459928695</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="W6" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="D7" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.284744599286949</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>4.284744599287939</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,43 +1151,43 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6.602605461619505</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.602605461619501</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,64 +1215,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="E9" t="n">
+      <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,58 +1297,58 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1379,10 +1379,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>174.9699020364456</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,7 +1427,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>141.4949486473163</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247744</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>174.9699020364472</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>122.7768979154167</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
@@ -1847,16 +1847,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>263.6878083828516</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>220.6187359188922</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1895,7 +1895,7 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1904,7 +1904,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>230.6383569674478</v>
+        <v>168.4257317978628</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>28.33530928504439</v>
+        <v>253.2882401841249</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>111.7244765928107</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>66.23125412673305</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.0332881705219</v>
+        <v>380.0332881705215</v>
       </c>
       <c r="C32" t="n">
-        <v>362.5723382780488</v>
+        <v>362.5723382780484</v>
       </c>
       <c r="D32" t="n">
-        <v>351.9824881277243</v>
+        <v>351.9824881277239</v>
       </c>
       <c r="E32" t="n">
-        <v>379.2298165793031</v>
+        <v>379.2298165793027</v>
       </c>
       <c r="F32" t="n">
-        <v>404.1754922487527</v>
+        <v>404.1754922487523</v>
       </c>
       <c r="G32" t="n">
-        <v>408.2211721604947</v>
+        <v>408.2211721604943</v>
       </c>
       <c r="H32" t="n">
-        <v>291.9072108943618</v>
+        <v>291.9072108943614</v>
       </c>
       <c r="I32" t="n">
-        <v>38.87637627996727</v>
+        <v>38.87637627996686</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>106.4872082952172</v>
+        <v>106.4872082952167</v>
       </c>
       <c r="T32" t="n">
-        <v>201.2174166466615</v>
+        <v>201.217416646661</v>
       </c>
       <c r="U32" t="n">
-        <v>248.2946184659433</v>
+        <v>248.2946184659429</v>
       </c>
       <c r="V32" t="n">
-        <v>325.0517049771762</v>
+        <v>325.0517049771758</v>
       </c>
       <c r="W32" t="n">
-        <v>346.5404152244543</v>
+        <v>346.5404152244539</v>
       </c>
       <c r="X32" t="n">
-        <v>367.0305471855103</v>
+        <v>367.0305471855099</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.5373851630949</v>
+        <v>383.5373851630945</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247754</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.1314266889786</v>
+        <v>177.1314266889782</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>164.5462676056687</v>
       </c>
       <c r="D34" t="n">
-        <v>145.9149195252537</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.7334091536105</v>
+        <v>143.7334091536101</v>
       </c>
       <c r="F34" t="n">
-        <v>142.7204945299726</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.23159917708865</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>127.8373368091977</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>216.8483957832101</v>
       </c>
       <c r="U34" t="n">
-        <v>283.5112847126542</v>
+        <v>283.5112847126538</v>
       </c>
       <c r="V34" t="n">
-        <v>249.4370898308693</v>
+        <v>249.4370898308689</v>
       </c>
       <c r="W34" t="n">
-        <v>283.8224448436323</v>
+        <v>283.8224448436319</v>
       </c>
       <c r="X34" t="n">
-        <v>223.0091018960785</v>
+        <v>223.0091018960781</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>121.3096866526396</v>
       </c>
     </row>
     <row r="35">
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3901,7 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.64033639962</v>
       </c>
       <c r="E43" t="n">
         <v>99.45882602797661</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="C2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="D2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="E2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="F2" t="n">
-        <v>5.302911461976195</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="K2" t="n">
-        <v>5.010543752573317</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="L2" t="n">
-        <v>5.010543752573317</v>
+        <v>5.205127975973023</v>
       </c>
       <c r="M2" t="n">
-        <v>9.82650328174573</v>
+        <v>9.826503281743463</v>
       </c>
       <c r="N2" t="n">
-        <v>9.82650328174573</v>
+        <v>9.826503281743463</v>
       </c>
       <c r="O2" t="n">
-        <v>14.64246281091814</v>
+        <v>14.64246281091476</v>
       </c>
       <c r="P2" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.13039749232496</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="R2" t="n">
-        <v>15.13039749232496</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="S2" t="n">
-        <v>10.21665447715058</v>
+        <v>15.13039749232147</v>
       </c>
       <c r="T2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="U2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="V2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="W2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="X2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.717193294567408</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="C3" t="n">
-        <v>4.717193294567408</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="D3" t="n">
-        <v>4.717193294567408</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="E3" t="n">
-        <v>4.717193294567408</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3891684468018112</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3891684468018112</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="K3" t="n">
-        <v>5.205127975974224</v>
+        <v>5.205127975973023</v>
       </c>
       <c r="L3" t="n">
-        <v>9.82650328174573</v>
+        <v>5.205127975973023</v>
       </c>
       <c r="M3" t="n">
-        <v>9.82650328174573</v>
+        <v>10.02108750514433</v>
       </c>
       <c r="N3" t="n">
-        <v>9.82650328174573</v>
+        <v>14.64246281091476</v>
       </c>
       <c r="O3" t="n">
-        <v>9.82650328174573</v>
+        <v>14.64246281091476</v>
       </c>
       <c r="P3" t="n">
-        <v>14.64246281091814</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="R3" t="n">
-        <v>14.54467932491617</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="S3" t="n">
-        <v>9.630936309741791</v>
+        <v>14.54467932491282</v>
       </c>
       <c r="T3" t="n">
-        <v>4.717193294567408</v>
+        <v>14.54467932491282</v>
       </c>
       <c r="U3" t="n">
-        <v>4.717193294567408</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="V3" t="n">
-        <v>4.717193294567408</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="W3" t="n">
-        <v>4.717193294567408</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="X3" t="n">
-        <v>4.717193294567408</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.717193294567408</v>
+        <v>5.302911461974971</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.630936309741791</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="C4" t="n">
-        <v>9.630936309741791</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="D4" t="n">
-        <v>9.630936309741791</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="E4" t="n">
-        <v>9.630936309741791</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="F4" t="n">
-        <v>9.630936309741791</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="G4" t="n">
-        <v>9.630936309741791</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="H4" t="n">
-        <v>5.302911461976195</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="L4" t="n">
-        <v>5.010543752573317</v>
+        <v>5.205127975973023</v>
       </c>
       <c r="M4" t="n">
-        <v>9.82650328174573</v>
+        <v>10.02108750514433</v>
       </c>
       <c r="N4" t="n">
-        <v>14.64246281091814</v>
+        <v>14.83704703431563</v>
       </c>
       <c r="O4" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="P4" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.45842234009056</v>
+        <v>14.54467932491282</v>
       </c>
       <c r="R4" t="n">
-        <v>19.45842234009056</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="S4" t="n">
-        <v>14.54467932491617</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="T4" t="n">
-        <v>14.54467932491617</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="U4" t="n">
-        <v>14.54467932491617</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="V4" t="n">
-        <v>14.54467932491617</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="W4" t="n">
-        <v>14.54467932491617</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="X4" t="n">
-        <v>14.54467932491617</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.630936309741791</v>
+        <v>0.3891684468017214</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.45842234009056</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="C5" t="n">
-        <v>14.54467932491617</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="D5" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="E5" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="F5" t="n">
-        <v>5.302911461976195</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="K5" t="n">
-        <v>5.205127975974224</v>
+        <v>5.010543752572161</v>
       </c>
       <c r="L5" t="n">
-        <v>5.205127975974224</v>
+        <v>9.826503281743463</v>
       </c>
       <c r="M5" t="n">
-        <v>5.205127975974224</v>
+        <v>9.826503281743463</v>
       </c>
       <c r="N5" t="n">
-        <v>9.82650328174573</v>
+        <v>14.64246281091476</v>
       </c>
       <c r="O5" t="n">
-        <v>14.64246281091814</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="P5" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="R5" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="S5" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="T5" t="n">
-        <v>19.45842234009056</v>
+        <v>14.54467932491282</v>
       </c>
       <c r="U5" t="n">
-        <v>19.45842234009056</v>
+        <v>14.54467932491282</v>
       </c>
       <c r="V5" t="n">
-        <v>19.45842234009056</v>
+        <v>14.54467932491282</v>
       </c>
       <c r="W5" t="n">
-        <v>19.45842234009056</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="X5" t="n">
-        <v>19.45842234009056</v>
+        <v>10.21665447714822</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.45842234009056</v>
+        <v>10.21665447714822</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.54467932491617</v>
+        <v>4.717193294566318</v>
       </c>
       <c r="C6" t="n">
-        <v>9.630936309741791</v>
+        <v>4.717193294566318</v>
       </c>
       <c r="D6" t="n">
-        <v>5.302911461976195</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="E6" t="n">
-        <v>5.302911461976195</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="F6" t="n">
-        <v>5.302911461976195</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="K6" t="n">
-        <v>5.205127975974224</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="L6" t="n">
-        <v>5.205127975974224</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="M6" t="n">
-        <v>10.02108750514664</v>
+        <v>5.205127975973023</v>
       </c>
       <c r="N6" t="n">
-        <v>14.83704703431905</v>
+        <v>10.02108750514433</v>
       </c>
       <c r="O6" t="n">
-        <v>19.45842234009056</v>
+        <v>10.02108750514433</v>
       </c>
       <c r="P6" t="n">
-        <v>19.45842234009056</v>
+        <v>14.64246281091476</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="R6" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="S6" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="T6" t="n">
-        <v>19.45842234009056</v>
+        <v>14.54467932491282</v>
       </c>
       <c r="U6" t="n">
-        <v>19.45842234009056</v>
+        <v>14.54467932491282</v>
       </c>
       <c r="V6" t="n">
-        <v>19.45842234009056</v>
+        <v>9.630936309739567</v>
       </c>
       <c r="W6" t="n">
-        <v>14.54467932491617</v>
+        <v>4.717193294566318</v>
       </c>
       <c r="X6" t="n">
-        <v>14.54467932491617</v>
+        <v>4.717193294566318</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.54467932491617</v>
+        <v>4.717193294566318</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.21665447715058</v>
+        <v>5.302911461974971</v>
       </c>
       <c r="C7" t="n">
-        <v>10.21665447715058</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="D7" t="n">
-        <v>5.302911461976195</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3891684468018112</v>
+        <v>0.3891684468017214</v>
       </c>
       <c r="L7" t="n">
-        <v>5.205127975974224</v>
+        <v>5.205127975973023</v>
       </c>
       <c r="M7" t="n">
-        <v>9.82650328174573</v>
+        <v>9.826503281743463</v>
       </c>
       <c r="N7" t="n">
-        <v>14.64246281091814</v>
+        <v>14.64246281091476</v>
       </c>
       <c r="O7" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="P7" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="R7" t="n">
-        <v>19.45842234009056</v>
+        <v>19.45842234008607</v>
       </c>
       <c r="S7" t="n">
-        <v>19.45842234009056</v>
+        <v>15.13039749232147</v>
       </c>
       <c r="T7" t="n">
-        <v>19.45842234009056</v>
+        <v>15.13039749232147</v>
       </c>
       <c r="U7" t="n">
-        <v>14.54467932491617</v>
+        <v>15.13039749232147</v>
       </c>
       <c r="V7" t="n">
-        <v>14.54467932491617</v>
+        <v>15.13039749232147</v>
       </c>
       <c r="W7" t="n">
-        <v>14.54467932491617</v>
+        <v>15.13039749232147</v>
       </c>
       <c r="X7" t="n">
-        <v>10.21665447715058</v>
+        <v>15.13039749232147</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.21665447715058</v>
+        <v>10.21665447714822</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.54165161445989</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
         <v>1.224219001210804</v>
@@ -4805,16 +4805,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M8" t="n">
         <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
         <v>46.0612399205565</v>
@@ -4826,28 +4826,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U8" t="n">
-        <v>61.2109500605402</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V8" t="n">
-        <v>61.2109500605402</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W8" t="n">
-        <v>61.2109500605402</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X8" t="n">
-        <v>54.54165161445989</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y8" t="n">
-        <v>54.54165161445989</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
         <v>1.224219001210804</v>
@@ -4887,16 +4887,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P9" t="n">
         <v>61.2109500605402</v>
@@ -4908,25 +4908,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
         <v>1.224219001210804</v>
@@ -4966,7 +4966,7 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
         <v>30.9115297805728</v>
@@ -4978,34 +4978,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="V10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1655.111013624415</v>
+        <v>1514.421949781761</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.598129632077</v>
+        <v>1514.421949781761</v>
       </c>
       <c r="D11" t="n">
-        <v>1022.782063973399</v>
+        <v>1203.605884123083</v>
       </c>
       <c r="E11" t="n">
-        <v>684.4434443232283</v>
+        <v>865.2672644729125</v>
       </c>
       <c r="F11" t="n">
-        <v>320.9071724816939</v>
+        <v>688.529989688624</v>
       </c>
       <c r="G11" t="n">
         <v>320.9071724816939</v>
       </c>
       <c r="H11" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="I11" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J11" t="n">
         <v>259.6523359975599</v>
       </c>
       <c r="K11" t="n">
-        <v>802.265051398605</v>
+        <v>593.4717096874065</v>
       </c>
       <c r="L11" t="n">
-        <v>1253.299264647014</v>
+        <v>1044.505922935815</v>
       </c>
       <c r="M11" t="n">
-        <v>1786.831169318938</v>
+        <v>1578.03782760774</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.609986377721</v>
+        <v>2124.816644666522</v>
       </c>
       <c r="O11" t="n">
-        <v>2836.582457257058</v>
+        <v>2627.789115545859</v>
       </c>
       <c r="P11" t="n">
-        <v>3231.356823614236</v>
+        <v>3022.563481903037</v>
       </c>
       <c r="Q11" t="n">
-        <v>3479.643185369918</v>
+        <v>3479.643185369916</v>
       </c>
       <c r="R11" t="n">
-        <v>3538.660251926721</v>
+        <v>3538.660251926719</v>
       </c>
       <c r="S11" t="n">
-        <v>3475.819216401889</v>
+        <v>3475.819216401887</v>
       </c>
       <c r="T11" t="n">
-        <v>3317.291101734184</v>
+        <v>3317.291101734183</v>
       </c>
       <c r="U11" t="n">
-        <v>3111.210257956094</v>
+        <v>3111.210257956092</v>
       </c>
       <c r="V11" t="n">
-        <v>2968.286067403249</v>
+        <v>2827.597003560595</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.967045081209</v>
+        <v>2522.277981238554</v>
       </c>
       <c r="X11" t="n">
-        <v>2336.950919768202</v>
+        <v>2196.261855925547</v>
       </c>
       <c r="Y11" t="n">
-        <v>1994.261220740463</v>
+        <v>1853.572156897809</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>945.8049430874596</v>
+        <v>945.8049430874594</v>
       </c>
       <c r="C12" t="n">
-        <v>771.3519138063326</v>
+        <v>771.3519138063324</v>
       </c>
       <c r="D12" t="n">
-        <v>622.4175041450814</v>
+        <v>622.4175041450812</v>
       </c>
       <c r="E12" t="n">
-        <v>463.1800491396259</v>
+        <v>463.1800491396257</v>
       </c>
       <c r="F12" t="n">
-        <v>316.6454911665109</v>
+        <v>316.6454911665107</v>
       </c>
       <c r="G12" t="n">
-        <v>180.2823909991289</v>
+        <v>180.2823909991293</v>
       </c>
       <c r="H12" t="n">
-        <v>89.78049663699647</v>
+        <v>89.7804966369968</v>
       </c>
       <c r="I12" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J12" t="n">
-        <v>164.4504745291517</v>
+        <v>164.4504745291518</v>
       </c>
       <c r="K12" t="n">
-        <v>402.7146735094989</v>
+        <v>402.714673509499</v>
       </c>
       <c r="L12" t="n">
-        <v>769.4128338221642</v>
+        <v>769.412833822164</v>
       </c>
       <c r="M12" t="n">
         <v>1216.68915904448</v>
       </c>
       <c r="N12" t="n">
-        <v>1690.212202598935</v>
+        <v>1690.212202598934</v>
       </c>
       <c r="O12" t="n">
         <v>2101.17348201699</v>
@@ -5160,10 +5160,10 @@
         <v>1529.632079078014</v>
       </c>
       <c r="X12" t="n">
-        <v>1321.780578872482</v>
+        <v>1321.780578872481</v>
       </c>
       <c r="Y12" t="n">
-        <v>1114.020280107528</v>
+        <v>1114.020280107527</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7273384116456</v>
+        <v>763.7273384116454</v>
       </c>
       <c r="C13" t="n">
-        <v>642.240788431812</v>
+        <v>642.2407884318117</v>
       </c>
       <c r="D13" t="n">
-        <v>539.5737819675496</v>
+        <v>539.5737819675491</v>
       </c>
       <c r="E13" t="n">
-        <v>439.1103213332298</v>
+        <v>439.1103213332293</v>
       </c>
       <c r="F13" t="n">
-        <v>339.6700067833927</v>
+        <v>339.6700067833923</v>
       </c>
       <c r="G13" t="n">
-        <v>219.4168031061849</v>
+        <v>219.4168031061845</v>
       </c>
       <c r="H13" t="n">
         <v>120.6492492721157</v>
       </c>
       <c r="I13" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J13" t="n">
         <v>162.4012227378767</v>
       </c>
       <c r="K13" t="n">
-        <v>412.8937909391597</v>
+        <v>412.8937909391598</v>
       </c>
       <c r="L13" t="n">
-        <v>775.9589746400625</v>
+        <v>775.9589746400627</v>
       </c>
       <c r="M13" t="n">
         <v>1166.621405492018</v>
       </c>
       <c r="N13" t="n">
-        <v>1554.535167450289</v>
+        <v>1554.53516745029</v>
       </c>
       <c r="O13" t="n">
         <v>1900.370151623109</v>
@@ -5218,7 +5218,7 @@
         <v>2179.483037309175</v>
       </c>
       <c r="Q13" t="n">
-        <v>2303.598718714096</v>
+        <v>2303.598718714097</v>
       </c>
       <c r="R13" t="n">
         <v>2261.217894419698</v>
@@ -5230,19 +5230,19 @@
         <v>1942.664660712197</v>
       </c>
       <c r="U13" t="n">
-        <v>1701.011426785914</v>
+        <v>1701.011426785913</v>
       </c>
       <c r="V13" t="n">
         <v>1493.7765715281</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.809034439213</v>
+        <v>1251.809034439212</v>
       </c>
       <c r="X13" t="n">
         <v>1071.269116489269</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.926170293812</v>
+        <v>897.9261702938118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.421949781762</v>
+        <v>1514.421949781761</v>
       </c>
       <c r="C14" t="n">
-        <v>1337.684674997472</v>
+        <v>1514.421949781761</v>
       </c>
       <c r="D14" t="n">
-        <v>1026.868609338795</v>
+        <v>1390.40488118033</v>
       </c>
       <c r="E14" t="n">
-        <v>688.5299896886243</v>
+        <v>1052.066261530158</v>
       </c>
       <c r="F14" t="n">
-        <v>688.5299896886243</v>
+        <v>688.5299896886241</v>
       </c>
       <c r="G14" t="n">
-        <v>320.907172481694</v>
+        <v>320.9071724816939</v>
       </c>
       <c r="H14" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="I14" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J14" t="n">
-        <v>259.6523359975599</v>
+        <v>259.6523359975598</v>
       </c>
       <c r="K14" t="n">
-        <v>802.265051398605</v>
+        <v>593.4717096874062</v>
       </c>
       <c r="L14" t="n">
-        <v>1253.299264647014</v>
+        <v>1044.505922935815</v>
       </c>
       <c r="M14" t="n">
-        <v>1786.831169318938</v>
+        <v>1578.037827607739</v>
       </c>
       <c r="N14" t="n">
-        <v>2333.609986377721</v>
+        <v>2124.816644666522</v>
       </c>
       <c r="O14" t="n">
-        <v>2836.582457257058</v>
+        <v>2836.582457257056</v>
       </c>
       <c r="P14" t="n">
-        <v>3231.356823614236</v>
+        <v>3231.356823614234</v>
       </c>
       <c r="Q14" t="n">
-        <v>3479.643185369918</v>
+        <v>3479.643185369916</v>
       </c>
       <c r="R14" t="n">
-        <v>3538.660251926721</v>
+        <v>3538.660251926719</v>
       </c>
       <c r="S14" t="n">
-        <v>3475.819216401889</v>
+        <v>3475.819216401887</v>
       </c>
       <c r="T14" t="n">
-        <v>3317.291101734184</v>
+        <v>3317.291101734183</v>
       </c>
       <c r="U14" t="n">
-        <v>3111.210257956094</v>
+        <v>3111.210257956092</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.597003560597</v>
+        <v>2827.597003560595</v>
       </c>
       <c r="W14" t="n">
-        <v>2522.277981238556</v>
+        <v>2522.277981238554</v>
       </c>
       <c r="X14" t="n">
-        <v>2196.261855925549</v>
+        <v>2196.261855925547</v>
       </c>
       <c r="Y14" t="n">
-        <v>1853.572156897811</v>
+        <v>1853.572156897809</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>945.8049430874597</v>
+        <v>945.8049430874594</v>
       </c>
       <c r="C15" t="n">
-        <v>771.3519138063327</v>
+        <v>771.3519138063324</v>
       </c>
       <c r="D15" t="n">
-        <v>622.4175041450815</v>
+        <v>622.4175041450812</v>
       </c>
       <c r="E15" t="n">
-        <v>463.1800491396259</v>
+        <v>463.1800491396257</v>
       </c>
       <c r="F15" t="n">
-        <v>316.6454911665109</v>
+        <v>316.6454911665107</v>
       </c>
       <c r="G15" t="n">
         <v>180.2823909991289</v>
       </c>
       <c r="H15" t="n">
-        <v>89.78049663699645</v>
+        <v>89.78049663699643</v>
       </c>
       <c r="I15" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J15" t="n">
         <v>164.4504745291517</v>
@@ -5397,10 +5397,10 @@
         <v>1529.632079078014</v>
       </c>
       <c r="X15" t="n">
-        <v>1321.780578872482</v>
+        <v>1321.780578872481</v>
       </c>
       <c r="Y15" t="n">
-        <v>1114.020280107528</v>
+        <v>1114.020280107527</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7273384116452</v>
+        <v>763.727338411645</v>
       </c>
       <c r="C16" t="n">
-        <v>642.2407884318116</v>
+        <v>642.2407884318113</v>
       </c>
       <c r="D16" t="n">
-        <v>539.5737819675492</v>
+        <v>539.5737819675489</v>
       </c>
       <c r="E16" t="n">
-        <v>439.1103213332293</v>
+        <v>439.1103213332292</v>
       </c>
       <c r="F16" t="n">
         <v>339.6700067833922</v>
@@ -5428,19 +5428,19 @@
         <v>219.4168031061845</v>
       </c>
       <c r="H16" t="n">
-        <v>120.6492492721156</v>
+        <v>120.6492492721158</v>
       </c>
       <c r="I16" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J16" t="n">
         <v>162.4012227378765</v>
       </c>
       <c r="K16" t="n">
-        <v>412.8937909391593</v>
+        <v>412.8937909391597</v>
       </c>
       <c r="L16" t="n">
-        <v>775.958974640062</v>
+        <v>775.9589746400625</v>
       </c>
       <c r="M16" t="n">
         <v>1166.621405492018</v>
@@ -5455,10 +5455,10 @@
         <v>2179.483037309175</v>
       </c>
       <c r="Q16" t="n">
-        <v>2303.598718714096</v>
+        <v>2303.598718714097</v>
       </c>
       <c r="R16" t="n">
-        <v>2261.217894419698</v>
+        <v>2261.217894419697</v>
       </c>
       <c r="S16" t="n">
         <v>2116.981643194597</v>
@@ -5479,7 +5479,7 @@
         <v>1071.269116489268</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.9261702938115</v>
+        <v>897.9261702938113</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1978.269086771508</v>
+        <v>1514.421949781761</v>
       </c>
       <c r="C17" t="n">
-        <v>1656.756202779169</v>
+        <v>1192.909065789423</v>
       </c>
       <c r="D17" t="n">
-        <v>1390.404881180329</v>
+        <v>882.0930001307454</v>
       </c>
       <c r="E17" t="n">
-        <v>1052.066261530158</v>
+        <v>543.7543804805745</v>
       </c>
       <c r="F17" t="n">
-        <v>688.529989688624</v>
+        <v>320.9071724816939</v>
       </c>
       <c r="G17" t="n">
         <v>320.9071724816939</v>
       </c>
       <c r="H17" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="I17" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J17" t="n">
         <v>427.0579850179129</v>
@@ -5519,46 +5519,46 @@
         <v>760.8773587077594</v>
       </c>
       <c r="L17" t="n">
-        <v>1211.911571956168</v>
+        <v>1253.299264647012</v>
       </c>
       <c r="M17" t="n">
-        <v>1745.443476628093</v>
+        <v>1786.831169318937</v>
       </c>
       <c r="N17" t="n">
-        <v>2292.222293686875</v>
+        <v>2333.609986377719</v>
       </c>
       <c r="O17" t="n">
-        <v>2795.194764566212</v>
+        <v>2836.582457257056</v>
       </c>
       <c r="P17" t="n">
-        <v>3189.96913092339</v>
+        <v>3231.356823614234</v>
       </c>
       <c r="Q17" t="n">
-        <v>3479.643185369918</v>
+        <v>3479.643185369916</v>
       </c>
       <c r="R17" t="n">
-        <v>3538.660251926721</v>
+        <v>3538.660251926719</v>
       </c>
       <c r="S17" t="n">
-        <v>3475.819216401889</v>
+        <v>3475.819216401887</v>
       </c>
       <c r="T17" t="n">
-        <v>3475.819216401889</v>
+        <v>3317.291101734183</v>
       </c>
       <c r="U17" t="n">
-        <v>3269.738372623799</v>
+        <v>3111.210257956093</v>
       </c>
       <c r="V17" t="n">
-        <v>2986.125118228301</v>
+        <v>2827.597003560596</v>
       </c>
       <c r="W17" t="n">
-        <v>2986.125118228301</v>
+        <v>2522.277981238554</v>
       </c>
       <c r="X17" t="n">
-        <v>2660.108992915295</v>
+        <v>2196.261855925548</v>
       </c>
       <c r="Y17" t="n">
-        <v>2317.419293887556</v>
+        <v>1853.572156897809</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>945.8049430874594</v>
+        <v>945.8049430874596</v>
       </c>
       <c r="C18" t="n">
-        <v>771.3519138063324</v>
+        <v>771.3519138063326</v>
       </c>
       <c r="D18" t="n">
-        <v>622.4175041450812</v>
+        <v>622.4175041450814</v>
       </c>
       <c r="E18" t="n">
-        <v>463.1800491396257</v>
+        <v>463.1800491396259</v>
       </c>
       <c r="F18" t="n">
-        <v>316.6454911665107</v>
+        <v>316.6454911665109</v>
       </c>
       <c r="G18" t="n">
         <v>180.2823909991289</v>
       </c>
       <c r="H18" t="n">
-        <v>89.78049663699636</v>
+        <v>89.78049663699647</v>
       </c>
       <c r="I18" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J18" t="n">
-        <v>164.450474529152</v>
+        <v>164.4504745291517</v>
       </c>
       <c r="K18" t="n">
         <v>402.7146735094989</v>
       </c>
       <c r="L18" t="n">
-        <v>769.412833822164</v>
+        <v>769.4128338221642</v>
       </c>
       <c r="M18" t="n">
         <v>1216.68915904448</v>
@@ -5634,10 +5634,10 @@
         <v>1529.632079078014</v>
       </c>
       <c r="X18" t="n">
-        <v>1321.780578872481</v>
+        <v>1321.780578872482</v>
       </c>
       <c r="Y18" t="n">
-        <v>1114.020280107527</v>
+        <v>1114.020280107528</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7273384116454</v>
+        <v>763.7273384116453</v>
       </c>
       <c r="C19" t="n">
-        <v>642.2407884318118</v>
+        <v>642.2407884318117</v>
       </c>
       <c r="D19" t="n">
-        <v>539.5737819675494</v>
+        <v>539.5737819675493</v>
       </c>
       <c r="E19" t="n">
         <v>439.1103213332295</v>
       </c>
       <c r="F19" t="n">
-        <v>339.6700067833925</v>
+        <v>339.6700067833924</v>
       </c>
       <c r="G19" t="n">
         <v>219.4168031061847</v>
       </c>
       <c r="H19" t="n">
-        <v>120.6492492721158</v>
+        <v>120.6492492721157</v>
       </c>
       <c r="I19" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J19" t="n">
         <v>162.4012227378766</v>
@@ -5677,7 +5677,7 @@
         <v>412.8937909391596</v>
       </c>
       <c r="L19" t="n">
-        <v>775.9589746400624</v>
+        <v>775.9589746400625</v>
       </c>
       <c r="M19" t="n">
         <v>1166.621405492018</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.262985306594</v>
+        <v>1514.421949781761</v>
       </c>
       <c r="C20" t="n">
-        <v>1255.750101314256</v>
+        <v>1192.909065789422</v>
       </c>
       <c r="D20" t="n">
         <v>1022.782063973399</v>
       </c>
       <c r="E20" t="n">
-        <v>684.4434443232283</v>
+        <v>684.4434443232281</v>
       </c>
       <c r="F20" t="n">
         <v>320.9071724816939</v>
@@ -5744,58 +5744,58 @@
         <v>320.9071724816939</v>
       </c>
       <c r="H20" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="I20" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J20" t="n">
-        <v>259.6523359975599</v>
+        <v>259.6523359975598</v>
       </c>
       <c r="K20" t="n">
-        <v>593.4717096874064</v>
+        <v>593.4717096874062</v>
       </c>
       <c r="L20" t="n">
         <v>1044.505922935815</v>
       </c>
       <c r="M20" t="n">
-        <v>1721.771913644686</v>
+        <v>1578.037827607739</v>
       </c>
       <c r="N20" t="n">
-        <v>2268.550730703468</v>
+        <v>2124.816644666522</v>
       </c>
       <c r="O20" t="n">
-        <v>2771.523201582805</v>
+        <v>2836.582457257056</v>
       </c>
       <c r="P20" t="n">
-        <v>3166.297567939983</v>
+        <v>3231.356823614234</v>
       </c>
       <c r="Q20" t="n">
-        <v>3414.583929695666</v>
+        <v>3479.643185369916</v>
       </c>
       <c r="R20" t="n">
-        <v>3538.660251926721</v>
+        <v>3538.660251926719</v>
       </c>
       <c r="S20" t="n">
-        <v>3538.660251926721</v>
+        <v>3475.819216401887</v>
       </c>
       <c r="T20" t="n">
-        <v>3380.132137259016</v>
+        <v>3317.291101734183</v>
       </c>
       <c r="U20" t="n">
-        <v>3174.051293480926</v>
+        <v>3111.210257956092</v>
       </c>
       <c r="V20" t="n">
-        <v>2890.438039085428</v>
+        <v>2827.597003560595</v>
       </c>
       <c r="W20" t="n">
-        <v>2585.119016763388</v>
+        <v>2522.277981238554</v>
       </c>
       <c r="X20" t="n">
-        <v>2259.102891450381</v>
+        <v>2196.261855925547</v>
       </c>
       <c r="Y20" t="n">
-        <v>1916.413192422643</v>
+        <v>1853.572156897809</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>945.8049430874597</v>
+        <v>945.8049430874596</v>
       </c>
       <c r="C21" t="n">
-        <v>771.3519138063327</v>
+        <v>771.3519138063326</v>
       </c>
       <c r="D21" t="n">
-        <v>622.4175041450815</v>
+        <v>622.4175041450814</v>
       </c>
       <c r="E21" t="n">
         <v>463.1800491396259</v>
@@ -5823,10 +5823,10 @@
         <v>180.2823909991289</v>
       </c>
       <c r="H21" t="n">
-        <v>89.78049663699645</v>
+        <v>89.78049663699647</v>
       </c>
       <c r="I21" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J21" t="n">
         <v>164.4504745291517</v>
@@ -5893,28 +5893,28 @@
         <v>539.5737819675493</v>
       </c>
       <c r="E22" t="n">
-        <v>439.1103213332294</v>
+        <v>439.1103213332295</v>
       </c>
       <c r="F22" t="n">
-        <v>339.6700067833925</v>
+        <v>339.6700067833924</v>
       </c>
       <c r="G22" t="n">
-        <v>219.4168031061848</v>
+        <v>219.4168031061847</v>
       </c>
       <c r="H22" t="n">
-        <v>120.6492492721158</v>
+        <v>120.6492492721157</v>
       </c>
       <c r="I22" t="n">
-        <v>70.77320503853441</v>
+        <v>70.77320503853439</v>
       </c>
       <c r="J22" t="n">
-        <v>162.4012227378767</v>
+        <v>162.4012227378766</v>
       </c>
       <c r="K22" t="n">
-        <v>412.8937909391595</v>
+        <v>412.8937909391592</v>
       </c>
       <c r="L22" t="n">
-        <v>775.9589746400623</v>
+        <v>775.958974640062</v>
       </c>
       <c r="M22" t="n">
         <v>1166.621405492018</v>
@@ -5966,7 +5966,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
         <v>1400.778593038484</v>
@@ -5975,64 +5975,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>1092.155029011367</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L23" t="n">
-        <v>1543.189242259776</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>2076.7211469317</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2623.499963990483</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X23" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
@@ -6111,7 +6111,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
         <v>423.2675027973144</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6230,46 +6230,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
         <v>1715.000032008795</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,7 +6333,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6342,7 +6342,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.5038042865474</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C28" t="n">
-        <v>392.5676213586405</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,16 +6388,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1736.036057401182</v>
+        <v>1197.213802001892</v>
       </c>
       <c r="V28" t="n">
-        <v>1481.351569195295</v>
+        <v>942.5293137960052</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.934399158335</v>
+        <v>653.1121437590446</v>
       </c>
       <c r="X28" t="n">
-        <v>963.9448482603173</v>
+        <v>425.1225928610273</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.1522691167871</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1664.032360218089</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422546</v>
+        <v>2642.582663047918</v>
       </c>
       <c r="N29" t="n">
-        <v>2812.369300656583</v>
+        <v>3189.3614801067</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986038</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.3568109459521</v>
+        <v>460.491024136793</v>
       </c>
       <c r="C31" t="n">
-        <v>505.4206280180452</v>
+        <v>460.491024136793</v>
       </c>
       <c r="D31" t="n">
-        <v>355.3039886057095</v>
+        <v>310.3743847244573</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>162.4612911420642</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>162.4612911420642</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>162.4612911420642</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="X31" t="n">
-        <v>895.1493900894822</v>
+        <v>681.2836032803232</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.3568109459521</v>
+        <v>460.491024136793</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2354.286483458282</v>
+        <v>2354.286483458278</v>
       </c>
       <c r="C32" t="n">
-        <v>1988.051798328939</v>
+        <v>1988.051798328936</v>
       </c>
       <c r="D32" t="n">
-        <v>1632.513931533258</v>
+        <v>1632.513931533256</v>
       </c>
       <c r="E32" t="n">
-        <v>1249.453510746083</v>
+        <v>1249.453510746082</v>
       </c>
       <c r="F32" t="n">
-        <v>841.1954377675452</v>
+        <v>841.1954377675438</v>
       </c>
       <c r="G32" t="n">
-        <v>428.850819423611</v>
+        <v>428.8508194236101</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9950508434473</v>
+        <v>133.9950508434468</v>
       </c>
       <c r="I32" t="n">
-        <v>94.72598389398541</v>
+        <v>94.72598389398533</v>
       </c>
       <c r="J32" t="n">
-        <v>283.6051148530108</v>
+        <v>451.0107638733638</v>
       </c>
       <c r="K32" t="n">
-        <v>617.4244885428573</v>
+        <v>902.6423201355701</v>
       </c>
       <c r="L32" t="n">
-        <v>1068.458701791266</v>
+        <v>1353.676533383979</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.009004621095</v>
+        <v>2332.226836213807</v>
       </c>
       <c r="N32" t="n">
-        <v>2879.005653272594</v>
+        <v>2879.00565327259</v>
       </c>
       <c r="O32" t="n">
-        <v>3758.970303602049</v>
+        <v>3758.970303602045</v>
       </c>
       <c r="P32" t="n">
-        <v>4153.744669959227</v>
+        <v>4153.744669959223</v>
       </c>
       <c r="Q32" t="n">
-        <v>4612.222872468215</v>
+        <v>4612.222872468211</v>
       </c>
       <c r="R32" t="n">
-        <v>4736.299194699271</v>
+        <v>4736.299194699266</v>
       </c>
       <c r="S32" t="n">
-        <v>4628.736358037435</v>
+        <v>4628.73635803743</v>
       </c>
       <c r="T32" t="n">
-        <v>4425.486442232726</v>
+        <v>4425.486442232722</v>
       </c>
       <c r="U32" t="n">
-        <v>4174.683797317633</v>
+        <v>4174.683797317628</v>
       </c>
       <c r="V32" t="n">
-        <v>3846.348741785132</v>
+        <v>3846.348741785127</v>
       </c>
       <c r="W32" t="n">
-        <v>3496.307918326087</v>
+        <v>3496.307918326082</v>
       </c>
       <c r="X32" t="n">
-        <v>3125.569991876077</v>
+        <v>3125.569991876072</v>
       </c>
       <c r="Y32" t="n">
-        <v>2738.158491711334</v>
+        <v>2738.15849171133</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>969.7577219429107</v>
+        <v>969.7577219429106</v>
       </c>
       <c r="C33" t="n">
-        <v>795.3046926617837</v>
+        <v>795.3046926617836</v>
       </c>
       <c r="D33" t="n">
-        <v>646.3702830005325</v>
+        <v>646.3702830005324</v>
       </c>
       <c r="E33" t="n">
         <v>487.1328279950769</v>
@@ -6768,19 +6768,19 @@
         <v>340.5982700219619</v>
       </c>
       <c r="G33" t="n">
-        <v>204.2351698545799</v>
+        <v>204.23516985458</v>
       </c>
       <c r="H33" t="n">
         <v>113.7332754924475</v>
       </c>
       <c r="I33" t="n">
-        <v>94.72598389398541</v>
+        <v>94.72598389398533</v>
       </c>
       <c r="J33" t="n">
         <v>188.4032533846027</v>
       </c>
       <c r="K33" t="n">
-        <v>426.6674523649499</v>
+        <v>426.6674523649498</v>
       </c>
       <c r="L33" t="n">
         <v>793.3656126776152</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>531.4621689534165</v>
+        <v>406.1195967821458</v>
       </c>
       <c r="C34" t="n">
-        <v>531.4621689534165</v>
+        <v>239.9112456653086</v>
       </c>
       <c r="D34" t="n">
-        <v>384.0733613521501</v>
+        <v>239.9112456653086</v>
       </c>
       <c r="E34" t="n">
-        <v>238.8880995808264</v>
+        <v>94.72598389398533</v>
       </c>
       <c r="F34" t="n">
-        <v>94.72598389398541</v>
+        <v>94.72598389398533</v>
       </c>
       <c r="G34" t="n">
-        <v>94.72598389398541</v>
+        <v>94.72598389398533</v>
       </c>
       <c r="H34" t="n">
-        <v>94.72598389398541</v>
+        <v>94.72598389398533</v>
       </c>
       <c r="I34" t="n">
-        <v>94.72598389398541</v>
+        <v>94.72598389398533</v>
       </c>
       <c r="J34" t="n">
-        <v>142.52216429895</v>
+        <v>142.5221642989504</v>
       </c>
       <c r="K34" t="n">
-        <v>349.1828952058556</v>
+        <v>349.1828952058563</v>
       </c>
       <c r="L34" t="n">
-        <v>668.4162416123808</v>
+        <v>668.4162416123819</v>
       </c>
       <c r="M34" t="n">
-        <v>1015.246835169959</v>
+        <v>1015.24683516996</v>
       </c>
       <c r="N34" t="n">
-        <v>1359.328759833852</v>
+        <v>1359.328759833855</v>
       </c>
       <c r="O34" t="n">
-        <v>1661.331906712295</v>
+        <v>1661.331906712297</v>
       </c>
       <c r="P34" t="n">
-        <v>1896.612955103983</v>
+        <v>1896.612955103986</v>
       </c>
       <c r="Q34" t="n">
-        <v>1976.896799214527</v>
+        <v>1976.89679921453</v>
       </c>
       <c r="R34" t="n">
-        <v>1889.794173783125</v>
+        <v>1976.89679921453</v>
       </c>
       <c r="S34" t="n">
-        <v>1760.665550743531</v>
+        <v>1976.89679921453</v>
       </c>
       <c r="T34" t="n">
-        <v>1760.665550743531</v>
+        <v>1757.858015595126</v>
       </c>
       <c r="U34" t="n">
-        <v>1474.290515680244</v>
+        <v>1471.48298053184</v>
       </c>
       <c r="V34" t="n">
-        <v>1222.333859285426</v>
+        <v>1219.526324137022</v>
       </c>
       <c r="W34" t="n">
-        <v>935.6445210595348</v>
+        <v>932.8369859111315</v>
       </c>
       <c r="X34" t="n">
-        <v>710.3828019725868</v>
+        <v>707.575266824184</v>
       </c>
       <c r="Y34" t="n">
-        <v>710.3828019725868</v>
+        <v>585.0402298013157</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1543.189242259776</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>2076.7211469317</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2623.499963990483</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
         <v>779.7865456803191</v>
@@ -7090,7 +7090,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960312</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973141</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7151,16 +7151,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,22 +7172,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1453.404136464983</v>
+        <v>1339.011402386886</v>
       </c>
       <c r="M38" t="n">
-        <v>1986.936041136908</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N38" t="n">
-        <v>2533.71485819569</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O38" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
         <v>3750.042416521973</v>
@@ -7199,25 +7199,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7251,10 +7251,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L39" t="n">
         <v>779.7865456803191</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415471</v>
@@ -7336,10 +7336,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7351,7 +7351,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
         <v>2271.591606277852</v>
@@ -7360,10 +7360,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
@@ -7372,10 +7372,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7412,19 +7412,19 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>887.9771891384776</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.011402386886</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1872.543307058811</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P41" t="n">
         <v>3750.042416521973</v>
@@ -7436,25 +7436,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D43" t="n">
         <v>549.9474938257041</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7597,22 +7597,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467784</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7649,28 +7649,28 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.783593239423</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1909.315497911347</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.303399835339</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164794</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7679,16 +7679,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668915</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302707</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>224.7579069093962</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>240.6310205550087</v>
       </c>
       <c r="M2" t="n">
-        <v>235.2108388122954</v>
+        <v>235.0142890916873</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>234.9628170067094</v>
+        <v>234.9628170067082</v>
       </c>
       <c r="P2" t="n">
-        <v>236.0976013402922</v>
+        <v>236.097601340291</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>142.7060445593816</v>
+        <v>142.7060445593805</v>
       </c>
       <c r="L3" t="n">
-        <v>143.2224356442898</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>146.9986395070398</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>136.0097679477479</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>138.8390129993529</v>
+        <v>138.8390129993518</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.8463796710442</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>139.5527321456539</v>
+        <v>139.7492818662598</v>
       </c>
       <c r="M4" t="n">
-        <v>143.7903895326277</v>
+        <v>143.7903895326266</v>
       </c>
       <c r="N4" t="n">
-        <v>132.5501500502558</v>
+        <v>132.5501500502547</v>
       </c>
       <c r="O4" t="n">
-        <v>143.3211440368654</v>
+        <v>143.1245943162574</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>224.9544566300032</v>
+        <v>224.7579069093951</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>240.6310205550087</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>234.0811194610066</v>
+        <v>234.2776691816124</v>
       </c>
       <c r="O5" t="n">
-        <v>234.9628170067094</v>
+        <v>234.9628170067082</v>
       </c>
       <c r="P5" t="n">
-        <v>236.0976013402922</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>142.7060445593816</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>146.998639507041</v>
+        <v>146.9986395070398</v>
       </c>
       <c r="N6" t="n">
-        <v>136.206317668356</v>
+        <v>136.2063176683548</v>
       </c>
       <c r="O6" t="n">
-        <v>147.2643003088601</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>138.6424632787448</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>144.846379671043</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>139.7492818662609</v>
+        <v>139.7492818662598</v>
       </c>
       <c r="M7" t="n">
-        <v>143.5938398120207</v>
+        <v>143.5938398120196</v>
       </c>
       <c r="N7" t="n">
-        <v>132.5501500502558</v>
+        <v>132.5501500502547</v>
       </c>
       <c r="O7" t="n">
-        <v>143.3211440368654</v>
+        <v>143.3211440368643</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.0306783175538</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>246.5357332704046</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>153.2388248701553</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
         <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>210.9023653648471</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>210.9023653648451</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>210.9023653648471</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>210.9023653648457</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>41.80575019277148</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.80575019277333</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>145.1859454918647</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>210.9023653648457</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>233.4533865158194</v>
       </c>
       <c r="O23" t="n">
-        <v>231.1066821161364</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9878,22 +9878,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>80.35488666587446</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>107.5040408147555</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>251.7982062376315</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>119.0022046185453</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>288.0988197906235</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-1.20792265079217e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>231.1066821161364</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>233.4533865158186</v>
+        <v>287.0017854473904</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>287.0017854473904</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>21.74982042514728</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>19.40311602546433</v>
+        <v>240.9710754359417</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.011440156688797</v>
+        <v>2.01144015668992</v>
       </c>
       <c r="G2" t="n">
-        <v>10.43813193011241</v>
+        <v>10.43813193011353</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22793,10 +22793,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.011440156688797</v>
+        <v>2.01144015668992</v>
       </c>
       <c r="G5" t="n">
-        <v>10.43813193011241</v>
+        <v>10.43813193011353</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>184.9310070866733</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>139.282173204226</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>143.3278531159678</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>184.9310070866737</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>44.02009661923877</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>139.2821732042267</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>77.06954803464257</v>
+        <v>139.2821732042276</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>257.8765289205685</v>
+        <v>32.92359802148798</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>34.70948605375848</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>78.52376078758773</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>164.5462676056692</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.9149195252533</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>142.7204945299721</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3252547660695</v>
+        <v>163.3252547660691</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0544614213621</v>
+        <v>142.0544614213617</v>
       </c>
       <c r="I34" t="n">
-        <v>93.65186691687941</v>
+        <v>93.651866916879</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>86.23159917708824</v>
       </c>
       <c r="S34" t="n">
-        <v>59.23113502928555</v>
+        <v>187.0684718384828</v>
       </c>
       <c r="T34" t="n">
-        <v>216.8483957832105</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.8840998591361</v>
+        <v>94.57441320649609</v>
       </c>
     </row>
     <row r="35">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>911345.8429755635</v>
+        <v>911345.8429755631</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911345.8429755635</v>
+        <v>911345.842975563</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813894.6951369523</v>
+        <v>813894.6951369522</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813894.6951369524</v>
+        <v>813894.6951369522</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813894.6951369523</v>
+        <v>813894.6951369522</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813894.6951369523</v>
+        <v>813894.6951369522</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859142.1669310411</v>
+        <v>859142.1669310412</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859656.7700732592</v>
+        <v>859656.7700732594</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594536.8183464763</v>
+        <v>594536.8183464758</v>
       </c>
       <c r="C2" t="n">
-        <v>594536.8183464763</v>
+        <v>594536.8183464758</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>566213.9512827875</v>
+        <v>566213.9512827874</v>
       </c>
       <c r="F2" t="n">
         <v>566213.9512827875</v>
       </c>
       <c r="G2" t="n">
-        <v>566213.9512827874</v>
+        <v>566213.9512827871</v>
       </c>
       <c r="H2" t="n">
-        <v>566213.9512827877</v>
+        <v>566213.9512827869</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="J2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.5909861254</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="L2" t="n">
-        <v>576888.8613755656</v>
+        <v>576888.8613755652</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1630.241217469542</v>
+        <v>1630.241217469166</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3242.396921450818</v>
+        <v>3242.396921451167</v>
       </c>
       <c r="E3" t="n">
         <v>1172682.444294782</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34482.34788790458</v>
+        <v>34482.34788790475</v>
       </c>
       <c r="J3" t="n">
-        <v>48414.88702241734</v>
+        <v>48414.88702241691</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2160.442794366946</v>
+        <v>2160.442794367273</v>
       </c>
       <c r="M3" t="n">
-        <v>209768.7628061443</v>
+        <v>209768.7628061442</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>414559.4325028098</v>
+        <v>414559.4325028099</v>
       </c>
       <c r="C4" t="n">
-        <v>414559.4325028098</v>
+        <v>414559.4325028099</v>
       </c>
       <c r="D4" t="n">
         <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>61257.00748796244</v>
+        <v>61257.0074879624</v>
       </c>
       <c r="F4" t="n">
-        <v>61257.00748796244</v>
+        <v>61257.0074879624</v>
       </c>
       <c r="G4" t="n">
-        <v>61257.00748796244</v>
+        <v>61257.0074879624</v>
       </c>
       <c r="H4" t="n">
-        <v>61257.00748796244</v>
+        <v>61257.00748796241</v>
       </c>
       <c r="I4" t="n">
-        <v>74601.16991356852</v>
+        <v>74601.16991356856</v>
       </c>
       <c r="J4" t="n">
-        <v>45917.41774240544</v>
+        <v>45917.41774240542</v>
       </c>
       <c r="K4" t="n">
-        <v>45917.41774240545</v>
+        <v>45917.41774240543</v>
       </c>
       <c r="L4" t="n">
-        <v>47572.28822238819</v>
+        <v>47572.28822238849</v>
       </c>
       <c r="M4" t="n">
-        <v>74601.16991356853</v>
+        <v>74601.16991356856</v>
       </c>
       <c r="N4" t="n">
         <v>74601.16991356853</v>
       </c>
       <c r="O4" t="n">
-        <v>74601.16991356853</v>
+        <v>74601.16991356856</v>
       </c>
       <c r="P4" t="n">
         <v>74601.16991356853</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33923.36801956937</v>
+        <v>33923.36801956931</v>
       </c>
       <c r="C5" t="n">
-        <v>33923.36801956937</v>
+        <v>33923.36801956931</v>
       </c>
       <c r="D5" t="n">
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>81493.92066260852</v>
+        <v>81493.92066260849</v>
       </c>
       <c r="F5" t="n">
-        <v>81493.92066260852</v>
+        <v>81493.92066260849</v>
       </c>
       <c r="G5" t="n">
-        <v>81493.92066260852</v>
+        <v>81493.92066260849</v>
       </c>
       <c r="H5" t="n">
-        <v>81493.92066260852</v>
+        <v>81493.92066260849</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>95975.91266396236</v>
+        <v>95975.91266396231</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144423.7766066276</v>
+        <v>144421.2991417822</v>
       </c>
       <c r="C6" t="n">
-        <v>146054.0178240971</v>
+        <v>146051.5403592513</v>
       </c>
       <c r="D6" t="n">
-        <v>143735.2655225683</v>
+        <v>143735.2655225681</v>
       </c>
       <c r="E6" t="n">
-        <v>-749219.4211625655</v>
+        <v>-749319.5636862509</v>
       </c>
       <c r="F6" t="n">
-        <v>423463.0231322165</v>
+        <v>423362.8806085311</v>
       </c>
       <c r="G6" t="n">
-        <v>423463.0231322164</v>
+        <v>423362.8806085307</v>
       </c>
       <c r="H6" t="n">
-        <v>423463.0231322168</v>
+        <v>423362.8806085304</v>
       </c>
       <c r="I6" t="n">
-        <v>396793.8236753257</v>
+        <v>396793.8236753259</v>
       </c>
       <c r="J6" t="n">
-        <v>385052.7679675891</v>
+        <v>384985.572477364</v>
       </c>
       <c r="K6" t="n">
-        <v>433467.6549900063</v>
+        <v>433400.4594997807</v>
       </c>
       <c r="L6" t="n">
-        <v>431180.2176948482</v>
+        <v>431116.8852059642</v>
       </c>
       <c r="M6" t="n">
         <v>221507.4087570866</v>
       </c>
       <c r="N6" t="n">
-        <v>431276.1715632309</v>
+        <v>431276.1715632306</v>
       </c>
       <c r="O6" t="n">
-        <v>431276.1715632303</v>
+        <v>431276.1715632311</v>
       </c>
       <c r="P6" t="n">
-        <v>431276.1715632311</v>
+        <v>431276.1715632307</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="C4" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="D4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>884.6650629816802</v>
+        <v>884.6650629816797</v>
       </c>
       <c r="F4" t="n">
-        <v>884.6650629816802</v>
+        <v>884.6650629816797</v>
       </c>
       <c r="G4" t="n">
-        <v>884.6650629816802</v>
+        <v>884.6650629816797</v>
       </c>
       <c r="H4" t="n">
-        <v>884.6650629816802</v>
+        <v>884.6650629816797</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26817,10 +26817,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="L4" t="n">
-        <v>1184.074798674818</v>
+        <v>1184.074798674817</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="M2" t="n">
-        <v>44.27458312563387</v>
+        <v>44.27458312563346</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.43813193011241</v>
+        <v>10.43813193011353</v>
       </c>
       <c r="E4" t="n">
-        <v>869.3623254665451</v>
+        <v>869.3623254665447</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6713982269342</v>
+        <v>129.6713982269349</v>
       </c>
       <c r="J4" t="n">
-        <v>185.0410749813385</v>
+        <v>185.0410749813369</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>699.6239880003419</v>
+        <v>699.6239880003428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.43813193011241</v>
+        <v>10.43813193011353</v>
       </c>
       <c r="M4" t="n">
-        <v>869.3623254665451</v>
+        <v>869.3623254665447</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.705954615256867</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>204.1554640012227</v>
+        <v>204.7353249869584</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>218.2312439791098</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>140.7844677940959</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>107.3708386514749</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.29322856762049</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>166.8185655188152</v>
+        <v>166.8185655188163</v>
       </c>
       <c r="T3" t="n">
-        <v>195.300123109799</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>221.6566374816879</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>246.8303775758981</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27552,10 +27552,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>157.9424279081516</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>150.5858693422356</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27579,13 +27579,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>81.29743766667286</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.0086467778825</v>
       </c>
       <c r="S4" t="n">
-        <v>219.1519924519496</v>
+        <v>219.1519924519507</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>247.2730377388065</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.7200477670721</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>360.4082861859849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>350.398297021395</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>218.2312439791098</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>344.956224118126</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>167.8438934032931</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>143.1603209653508</v>
+        <v>143.1603209653518</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>132.478911578188</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27746,16 +27746,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>195.3001231098001</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>227.9359815644038</v>
       </c>
       <c r="W6" t="n">
-        <v>246.830377575897</v>
+        <v>246.8303775758981</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>174.9673745969158</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>162.3822155136063</v>
       </c>
       <c r="D7" t="n">
-        <v>143.7508674331897</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>141.5693570615465</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,13 +27822,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>219.7318534376853</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>281.4544237714683</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>221.4249107897492</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>213.7200477670733</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>349.9701542558725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27898,16 +27898,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>244.743047446217</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>363.1284952168496</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,10 +27935,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>133.9664143613078</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27980,19 +27980,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>156.3804335887028</v>
+        <v>158.2045199005069</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
-        <v>236.3922456457846</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>132.9553114432382</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28050,25 +28050,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>166.5361809089451</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V10" t="n">
-        <v>236.834905808693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.2819158369597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="C32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="D32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="E32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="F32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="G32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="H32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="I32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="T32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="U32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="V32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="W32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="X32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="C34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="D34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="E34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="F34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="G34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="H34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="I34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="J34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="K34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="L34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="M34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="N34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="O34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="P34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="R34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="S34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="T34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="U34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="V34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="W34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="X34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.700553492958683</v>
+        <v>2.700553492959091</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30651,7 +30651,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
         <v>46.97513661859256</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33737,10 +33737,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.668055864415662</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="M2" t="n">
-        <v>4.864605585022639</v>
+        <v>4.668055864414586</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="P2" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="L3" t="n">
-        <v>4.668055864415662</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.668055864414585</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.668055864415662</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="M4" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="N4" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="O4" t="n">
-        <v>4.864605585022639</v>
+        <v>4.668055864414585</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4.864605585022639</v>
+        <v>4.668055864414586</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.668055864415662</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="O5" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="P5" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.864605585022639</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="N6" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="O6" t="n">
-        <v>4.668055864415665</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>4.668055864414585</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="M7" t="n">
-        <v>4.668055864415662</v>
+        <v>4.668055864414586</v>
       </c>
       <c r="N7" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="O7" t="n">
-        <v>4.864605585022639</v>
+        <v>4.864605585021517</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="L8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>15.30273751513505</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M10" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>548.0936519202476</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>461.6966701685647</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35577,10 +35577,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35647,7 +35647,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>548.0936519202476</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>718.9553662530648</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>497.3958645851037</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35902,7 +35902,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>292.6000549964928</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36048,10 +36048,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120759</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36127,13 +36127,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>684.1070613220915</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>718.9553662530648</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629117</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36288,7 +36288,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36358,7 +36358,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,13 +36367,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>785.7552219287309</v>
       </c>
       <c r="O23" t="n">
-        <v>739.1596830043555</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36598,22 +36598,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>479.1168728852463</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>563.0941552070876</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>804.1000416505429</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>456.1934911739458</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,7 +37078,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>840.4006552035349</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>48.2789701060249</v>
+        <v>48.27897010602531</v>
       </c>
       <c r="K34" t="n">
-        <v>208.7482130372782</v>
+        <v>208.7482130372787</v>
       </c>
       <c r="L34" t="n">
-        <v>322.4579256631568</v>
+        <v>322.4579256631572</v>
       </c>
       <c r="M34" t="n">
-        <v>350.3339328864425</v>
+        <v>350.3339328864429</v>
       </c>
       <c r="N34" t="n">
-        <v>347.5574996604988</v>
+        <v>347.5574996604992</v>
       </c>
       <c r="O34" t="n">
-        <v>305.0536837155985</v>
+        <v>305.0536837155989</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6576246380691</v>
+        <v>237.6576246380695</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.09479203085233</v>
+        <v>81.09479203085274</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>739.1596830043555</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37385,10 +37385,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>689.0435009081508</v>
+        <v>742.5918998397226</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>624.1930720027909</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37789,13 +37789,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>574.0516558380588</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,19 +38017,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>571.7049514383758</v>
+        <v>793.2729108488531</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
